--- a/arguments_overview.xlsx
+++ b/arguments_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshmc\Documents\UAB\+ TA Stuff\Trello_C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9C32E3-45B1-4357-9A54-1500721D5990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4363447-DBE7-41DA-99A7-5FFF61180171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="22275" windowHeight="14070" xr2:uid="{7AF23832-23D9-45D1-8EA2-26E6DEEFBC19}"/>
+    <workbookView xWindow="31785" yWindow="555" windowWidth="22275" windowHeight="14070" xr2:uid="{7AF23832-23D9-45D1-8EA2-26E6DEEFBC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>trello.exe</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>/priority</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -516,19 +522,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78F1DA1-976F-48B3-BBE1-0E73AF8052AB}">
-  <dimension ref="B3:G26"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -548,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -568,7 +583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -576,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -584,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -598,7 +613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -612,7 +627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -626,7 +641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -640,7 +655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -657,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -671,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -688,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -699,7 +714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -710,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>

--- a/arguments_overview.xlsx
+++ b/arguments_overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshmc\Documents\UAB\+ TA Stuff\Trello_C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshmc\Documents\UAB\+ TA Stuff\Trello_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4363447-DBE7-41DA-99A7-5FFF61180171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A83A4A-9B98-4868-BC27-80815AED602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31785" yWindow="555" windowWidth="22275" windowHeight="14070" xr2:uid="{7AF23832-23D9-45D1-8EA2-26E6DEEFBC19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7AF23832-23D9-45D1-8EA2-26E6DEEFBC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>trello.exe</t>
   </si>
@@ -161,17 +161,92 @@
     <t>/priority</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>notes</t>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>/list /add "New List"</t>
+  </si>
+  <si>
+    <t>/list /add 1 "New List"</t>
+  </si>
+  <si>
+    <t>List ID cannot already exist.</t>
+  </si>
+  <si>
+    <t>/list /update 1 "List Name"</t>
+  </si>
+  <si>
+    <t>/list /addcard 1 "Task 1"</t>
+  </si>
+  <si>
+    <t>/list /addcard 1 1 "Task 1"</t>
+  </si>
+  <si>
+    <t>Card ID cannot already exist.</t>
+  </si>
+  <si>
+    <t>/list /removecard 1 1</t>
+  </si>
+  <si>
+    <t>/list /movecard 1 2 1</t>
+  </si>
+  <si>
+    <t>User ID cannot already exist.</t>
+  </si>
+  <si>
+    <t>/list /archive 1</t>
+  </si>
+  <si>
+    <t>/list /display 1</t>
+  </si>
+  <si>
+    <t>/card /archive 1</t>
+  </si>
+  <si>
+    <t>/card /display 1</t>
+  </si>
+  <si>
+    <t>/user /archive 1</t>
+  </si>
+  <si>
+    <t>/user /add "Example Name"</t>
+  </si>
+  <si>
+    <t>/user /add 1 "Example Name"</t>
+  </si>
+  <si>
+    <t>/user /update 1 "New Name"</t>
+  </si>
+  <si>
+    <t>/card /update /desc 1 "Task 2"</t>
+  </si>
+  <si>
+    <t>/card /update /priority 1 high</t>
+  </si>
+  <si>
+    <t>/card /adduser 2 1</t>
+  </si>
+  <si>
+    <t>/card /removeuser 2 1</t>
+  </si>
+  <si>
+    <t>/card /moveuser 2 3 1</t>
+  </si>
+  <si>
+    <t>Move User 1 from Card 2 to Card 3.</t>
+  </si>
+  <si>
+    <t>Move Card 1 from List 1 to List 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,16 +260,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,12 +297,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,368 +641,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78F1DA1-976F-48B3-BBE1-0E73AF8052AB}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="H20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>